--- a/Energia/Model/t1_confection/A1_Outputs/A-O_AR_Projections.xlsx
+++ b/Energia/Model/t1_confection/A1_Outputs/A-O_AR_Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\2_Herramientas\_mmf_ECU\modelo_energia_202210\t1_confection_v23\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucr\Desktop\t1_confection_v23\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09634412-1F52-40DE-A911-322599616956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA057C-F7E6-411A-9812-2055B505BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Demand Techs'!$A$1:$BH$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Distribution Transport'!$A$1:$BH$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primary!$A$1:$BH$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Secondary!$A$1:$BJ$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Secondary!$A$1:$BJ$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Transport!$A$1:$BH$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="790">
   <si>
     <t>Tech</t>
   </si>
@@ -2485,6 +2485,18 @@
   </si>
   <si>
     <t>TRNCRU</t>
+  </si>
+  <si>
+    <t>Thermal power plants</t>
+  </si>
+  <si>
+    <t>PP_TPP</t>
+  </si>
+  <si>
+    <t>E1_ELE_FF</t>
+  </si>
+  <si>
+    <t>Thermal Electricity</t>
   </si>
 </sst>
 </file>
@@ -3013,19 +3025,19 @@
       <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.84375" customWidth="1"/>
-    <col min="2" max="2" width="68.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.53515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>723</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>1.6990438729545518</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3496,7 +3508,7 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3552,7 +3564,7 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3620,7 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3676,7 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -3720,7 +3732,7 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3776,7 +3788,7 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
     </row>
-    <row r="9" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -3832,7 +3844,7 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -3888,7 +3900,7 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -3944,7 +3956,7 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -4000,7 +4012,7 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
     </row>
-    <row r="13" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -4056,7 +4068,7 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
@@ -4134,7 +4146,7 @@
       <c r="BG14" s="4"/>
       <c r="BH14" s="4"/>
     </row>
-    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
@@ -4190,7 +4202,7 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
     </row>
-    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -4246,7 +4258,7 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
     </row>
-    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -4302,7 +4314,7 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
     </row>
-    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -4358,7 +4370,7 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
     </row>
-    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -4414,7 +4426,7 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
     </row>
-    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>78</v>
       </c>
@@ -4470,7 +4482,7 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -4526,7 +4538,7 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -4582,7 +4594,7 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
@@ -4638,7 +4650,7 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -4694,7 +4706,7 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>88</v>
       </c>
@@ -4750,7 +4762,7 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
@@ -4806,7 +4818,7 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
@@ -4862,7 +4874,7 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
@@ -4918,7 +4930,7 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>96</v>
       </c>
@@ -4974,7 +4986,7 @@
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -5030,7 +5042,7 @@
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>100</v>
       </c>
@@ -5086,7 +5098,7 @@
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>102</v>
       </c>
@@ -5142,7 +5154,7 @@
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -5198,7 +5210,7 @@
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
@@ -5254,7 +5266,7 @@
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
     </row>
-    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
@@ -5310,7 +5322,7 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
     </row>
-    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>110</v>
       </c>
@@ -5366,7 +5378,7 @@
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
     </row>
-    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>113</v>
       </c>
@@ -5422,7 +5434,7 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
     </row>
-    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>116</v>
       </c>
@@ -5478,7 +5490,7 @@
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
     </row>
-    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -5534,7 +5546,7 @@
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
     </row>
-    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>120</v>
       </c>
@@ -5590,7 +5602,7 @@
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
     </row>
-    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>122</v>
       </c>
@@ -5646,7 +5658,7 @@
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
     </row>
-    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>124</v>
       </c>
@@ -5702,7 +5714,7 @@
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
     </row>
-    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>126</v>
       </c>
@@ -5758,7 +5770,7 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
     </row>
-    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>128</v>
       </c>
@@ -5814,7 +5826,7 @@
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
     </row>
-    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>130</v>
       </c>
@@ -5870,7 +5882,7 @@
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
     </row>
-    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>132</v>
       </c>
@@ -5941,28 +5953,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ110"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BJ114"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.84375" customWidth="1"/>
-    <col min="2" max="2" width="70.07421875" customWidth="1"/>
-    <col min="3" max="3" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.4609375" customWidth="1"/>
-    <col min="5" max="5" width="8.84375" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" customWidth="1"/>
-    <col min="7" max="7" width="15.4609375" customWidth="1"/>
-    <col min="8" max="8" width="19.4609375" customWidth="1"/>
-    <col min="9" max="15" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.07421875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6150,7 +6163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>234</v>
       </c>
@@ -6336,7 +6349,7 @@
       </c>
       <c r="BJ2" s="26"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>234</v>
       </c>
@@ -6520,7 +6533,7 @@
       </c>
       <c r="BJ3" s="26"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>234</v>
       </c>
@@ -6706,7 +6719,7 @@
       </c>
       <c r="BJ4" s="26"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>242</v>
       </c>
@@ -6892,7 +6905,7 @@
       </c>
       <c r="BJ5" s="26"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>242</v>
       </c>
@@ -7076,7 +7089,7 @@
       </c>
       <c r="BJ6" s="26"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>242</v>
       </c>
@@ -7262,7 +7275,7 @@
       </c>
       <c r="BJ7" s="26"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>734</v>
       </c>
@@ -7446,7 +7459,7 @@
       </c>
       <c r="BJ8" s="26"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>734</v>
       </c>
@@ -7630,7 +7643,7 @@
       </c>
       <c r="BJ9" s="26"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>733</v>
       </c>
@@ -7814,7 +7827,7 @@
       </c>
       <c r="BJ10" s="3"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>733</v>
       </c>
@@ -7998,7 +8011,7 @@
       </c>
       <c r="BJ11" s="3"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>732</v>
       </c>
@@ -8182,7 +8195,7 @@
       </c>
       <c r="BJ12" s="3"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>732</v>
       </c>
@@ -8366,7 +8379,7 @@
       </c>
       <c r="BJ13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>785</v>
       </c>
@@ -8552,7 +8565,7 @@
       </c>
       <c r="BJ14" s="1"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>785</v>
       </c>
@@ -8738,7 +8751,7 @@
       </c>
       <c r="BJ15" s="1"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>146</v>
       </c>
@@ -8922,7 +8935,7 @@
       </c>
       <c r="BJ16" s="3"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>146</v>
       </c>
@@ -9106,7 +9119,7 @@
       </c>
       <c r="BJ17" s="3"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>141</v>
       </c>
@@ -9290,7 +9303,7 @@
       </c>
       <c r="BJ18" s="3"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -9474,7 +9487,7 @@
       </c>
       <c r="BJ19" s="3"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>259</v>
       </c>
@@ -9660,7 +9673,7 @@
       </c>
       <c r="BJ20" s="3"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>259</v>
       </c>
@@ -9844,7 +9857,7 @@
       </c>
       <c r="BJ21" s="3"/>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>254</v>
       </c>
@@ -10030,7 +10043,7 @@
       </c>
       <c r="BJ22" s="3"/>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>254</v>
       </c>
@@ -10214,7 +10227,7 @@
       </c>
       <c r="BJ23" s="3"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>251</v>
       </c>
@@ -10400,7 +10413,7 @@
       </c>
       <c r="BJ24" s="3"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>251</v>
       </c>
@@ -10584,7 +10597,7 @@
       </c>
       <c r="BJ25" s="3"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>246</v>
       </c>
@@ -10770,7 +10783,7 @@
       </c>
       <c r="BJ26" s="3"/>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>246</v>
       </c>
@@ -10954,7 +10967,7 @@
       </c>
       <c r="BJ27" s="3"/>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>257</v>
       </c>
@@ -11140,7 +11153,7 @@
       </c>
       <c r="BJ28" s="3"/>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>257</v>
       </c>
@@ -11324,7 +11337,7 @@
       </c>
       <c r="BJ29" s="3"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>174</v>
       </c>
@@ -11510,7 +11523,7 @@
       </c>
       <c r="BJ30" s="3"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>174</v>
       </c>
@@ -11694,7 +11707,7 @@
       </c>
       <c r="BJ31" s="3"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>178</v>
       </c>
@@ -11880,7 +11893,7 @@
       </c>
       <c r="BJ32" s="3"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>178</v>
       </c>
@@ -12064,7 +12077,7 @@
       </c>
       <c r="BJ33" s="3"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>189</v>
       </c>
@@ -12248,7 +12261,7 @@
       </c>
       <c r="BJ34" s="3"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>189</v>
       </c>
@@ -12432,7 +12445,7 @@
       </c>
       <c r="BJ35" s="3"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>182</v>
       </c>
@@ -12618,7 +12631,7 @@
       </c>
       <c r="BJ36" s="3"/>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>182</v>
       </c>
@@ -12802,7 +12815,7 @@
       </c>
       <c r="BJ37" s="3"/>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>182</v>
       </c>
@@ -12986,7 +12999,7 @@
       </c>
       <c r="BJ38" s="3"/>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>192</v>
       </c>
@@ -13172,7 +13185,7 @@
       </c>
       <c r="BJ39" s="3"/>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>192</v>
       </c>
@@ -13180,7 +13193,7 @@
         <v>193</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>77</v>
@@ -13356,7 +13369,7 @@
       </c>
       <c r="BJ40" s="3"/>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>204</v>
       </c>
@@ -13540,7 +13553,7 @@
       </c>
       <c r="BJ41" s="3"/>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>204</v>
       </c>
@@ -13548,7 +13561,7 @@
         <v>205</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>77</v>
@@ -13724,7 +13737,7 @@
       </c>
       <c r="BJ42" s="3"/>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>198</v>
       </c>
@@ -13910,7 +13923,7 @@
       </c>
       <c r="BJ43" s="3"/>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>198</v>
       </c>
@@ -13918,7 +13931,7 @@
         <v>199</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>77</v>
@@ -14094,7 +14107,7 @@
       </c>
       <c r="BJ44" s="3"/>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>200</v>
       </c>
@@ -14280,7 +14293,7 @@
       </c>
       <c r="BJ45" s="3"/>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>200</v>
       </c>
@@ -14288,7 +14301,7 @@
         <v>201</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>77</v>
@@ -14464,7 +14477,7 @@
       </c>
       <c r="BJ46" s="3"/>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
@@ -14650,7 +14663,7 @@
       </c>
       <c r="BJ47" s="3"/>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>194</v>
       </c>
@@ -14658,7 +14671,7 @@
         <v>195</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>77</v>
@@ -14834,7 +14847,7 @@
       </c>
       <c r="BJ48" s="3"/>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>196</v>
       </c>
@@ -15020,7 +15033,7 @@
       </c>
       <c r="BJ49" s="3"/>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>196</v>
       </c>
@@ -15028,7 +15041,7 @@
         <v>197</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>77</v>
@@ -15204,7 +15217,7 @@
       </c>
       <c r="BJ50" s="3"/>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -15390,7 +15403,7 @@
       </c>
       <c r="BJ51" s="3"/>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>202</v>
       </c>
@@ -15398,7 +15411,7 @@
         <v>203</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>77</v>
@@ -15574,7 +15587,7 @@
       </c>
       <c r="BJ52" s="3"/>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>187</v>
       </c>
@@ -15760,7 +15773,7 @@
       </c>
       <c r="BJ53" s="3"/>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>187</v>
       </c>
@@ -15944,7 +15957,7 @@
       </c>
       <c r="BJ54" s="3"/>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>206</v>
       </c>
@@ -16130,7 +16143,7 @@
       </c>
       <c r="BJ55" s="3"/>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>206</v>
       </c>
@@ -16314,208 +16327,210 @@
       </c>
       <c r="BJ56" s="3"/>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="E57" s="5" t="s">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>2.4908000000000001</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
-        <v>2.6722000000000001</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
-        <v>2.7822</v>
+        <v>1</v>
       </c>
       <c r="L57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="M57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="N57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="O57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="P57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="R57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="S57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="T57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="U57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="V57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="W57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="X57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AF57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AG57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AH57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AN57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AP57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AQ57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AS57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AU57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AV57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AW57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AX57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BC57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BD57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BE57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BF57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BG57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BH57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BI57" s="3">
-        <v>2.6484000000000001</v>
+        <v>1</v>
       </c>
       <c r="BJ57" s="3"/>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>216</v>
+        <v>787</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="5" t="s">
         <v>140</v>
       </c>
       <c r="H58" s="4">
@@ -16682,12 +16697,12 @@
       </c>
       <c r="BJ58" s="3"/>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>219</v>
+    <row r="59" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>759</v>
@@ -16695,14 +16710,14 @@
       <c r="D59" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="5">
         <v>0</v>
       </c>
       <c r="I59" s="3">
@@ -16866,27 +16881,27 @@
       </c>
       <c r="BJ59" s="3"/>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>219</v>
+    <row r="60" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <v>0</v>
       </c>
       <c r="I60" s="3">
@@ -17050,25 +17065,23 @@
       </c>
       <c r="BJ60" s="3"/>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>16</v>
+        <v>219</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>783</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
         <v>140</v>
       </c>
@@ -17076,172 +17089,172 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>2.7423999999999999</v>
+        <v>2.4908000000000001</v>
       </c>
       <c r="J61" s="3">
-        <v>2.9929999999999999</v>
+        <v>2.6722000000000001</v>
       </c>
       <c r="K61" s="3">
-        <v>2.9348999999999998</v>
+        <v>2.7822</v>
       </c>
       <c r="L61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="M61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="N61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="O61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="P61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="Q61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="R61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="S61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="T61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="U61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="V61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="W61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="X61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="Y61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="Z61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AA61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AB61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AC61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AD61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AE61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AF61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AG61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AH61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AI61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AJ61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AK61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AL61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AM61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AN61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AO61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AP61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AQ61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AR61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AS61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AT61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AU61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AV61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AW61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AX61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AY61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="AZ61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BA61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BB61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BC61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BD61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BE61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BF61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BG61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BH61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BI61" s="3">
-        <v>2.8900999999999999</v>
+        <v>2.6484000000000001</v>
       </c>
       <c r="BJ61" s="3"/>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>112</v>
@@ -17420,12 +17433,12 @@
       </c>
       <c r="BJ62" s="3"/>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>15</v>
@@ -17606,12 +17619,12 @@
       </c>
       <c r="BJ63" s="3"/>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>112</v>
@@ -17790,29 +17803,29 @@
       </c>
       <c r="BJ64" s="3"/>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="5" t="s">
+    <row r="65" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>0</v>
       </c>
       <c r="I65" s="3">
@@ -17976,27 +17989,27 @@
       </c>
       <c r="BJ65" s="3"/>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>213</v>
+    <row r="66" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="5">
         <v>0</v>
       </c>
       <c r="I66" s="3">
@@ -18160,12 +18173,12 @@
       </c>
       <c r="BJ66" s="3"/>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>15</v>
@@ -18346,12 +18359,12 @@
       </c>
       <c r="BJ67" s="3"/>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>112</v>
@@ -18530,29 +18543,29 @@
       </c>
       <c r="BJ68" s="3"/>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A69" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="4" t="s">
+    <row r="69" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="5">
         <v>0</v>
       </c>
       <c r="I69" s="3">
@@ -18716,27 +18729,27 @@
       </c>
       <c r="BJ69" s="3"/>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>223</v>
+    <row r="70" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>0</v>
       </c>
       <c r="I70" s="3">
@@ -18900,29 +18913,29 @@
       </c>
       <c r="BJ70" s="3"/>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A71" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" s="5" t="s">
+    <row r="71" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>0</v>
       </c>
       <c r="I71" s="3">
@@ -19086,27 +19099,27 @@
       </c>
       <c r="BJ71" s="3"/>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>221</v>
+    <row r="72" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="5">
         <v>0</v>
       </c>
       <c r="I72" s="3">
@@ -19270,213 +19283,213 @@
       </c>
       <c r="BJ72" s="3"/>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="4" t="s">
+    <row r="73" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="5">
         <v>0</v>
       </c>
       <c r="I73" s="3">
-        <v>2.6568999999999998</v>
+        <v>2.7423999999999999</v>
       </c>
       <c r="J73" s="3">
-        <v>2.6916000000000002</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="K73" s="3">
-        <v>2.6871</v>
+        <v>2.9348999999999998</v>
       </c>
       <c r="L73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="M73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="N73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="O73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="P73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="Q73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="R73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="S73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="T73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="U73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="V73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="W73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="X73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="Y73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="Z73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AA73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AB73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AC73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AD73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AE73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AF73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AG73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AH73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AI73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AJ73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AK73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AL73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AM73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AN73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AO73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AP73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AQ73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AR73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AS73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AT73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AU73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AV73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AW73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AX73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AY73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="AZ73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BA73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BB73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BC73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BD73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BE73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BF73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BG73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BH73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BI73" s="3">
-        <v>2.6785000000000001</v>
+        <v>2.8900999999999999</v>
       </c>
       <c r="BJ73" s="3"/>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>722</v>
+    <row r="74" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="4">
         <v>0</v>
       </c>
       <c r="I74" s="3">
@@ -19640,18 +19653,18 @@
       </c>
       <c r="BJ74" s="3"/>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>177</v>
+        <v>722</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>727</v>
+        <v>157</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>139</v>
@@ -19666,172 +19679,172 @@
         <v>0</v>
       </c>
       <c r="I75" s="3">
-        <v>3.2932000000000001</v>
+        <v>2.6568999999999998</v>
       </c>
       <c r="J75" s="3">
-        <v>3.1819999999999999</v>
+        <v>2.6916000000000002</v>
       </c>
       <c r="K75" s="3">
-        <v>3.1124000000000001</v>
+        <v>2.6871</v>
       </c>
       <c r="L75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="M75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="N75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="O75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="P75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="Q75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="R75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="S75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="T75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="U75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="V75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="W75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="X75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="Y75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="Z75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AA75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AB75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AC75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AD75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AE75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AF75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AG75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AH75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AI75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AJ75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AK75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AL75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AM75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AN75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AO75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AP75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AQ75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AR75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AS75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AT75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AU75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AV75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AW75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AX75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AY75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="AZ75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BA75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BB75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BC75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BD75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BE75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BF75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BG75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BH75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BI75" s="3">
-        <v>3.1959</v>
+        <v>2.6785000000000001</v>
       </c>
       <c r="BJ75" s="3"/>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>227</v>
+        <v>722</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>112</v>
@@ -20010,12 +20023,12 @@
       </c>
       <c r="BJ76" s="3"/>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>229</v>
+    <row r="77" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>177</v>
@@ -20023,16 +20036,16 @@
       <c r="D77" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <v>0</v>
       </c>
       <c r="I77" s="3">
@@ -20196,27 +20209,27 @@
       </c>
       <c r="BJ77" s="3"/>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>229</v>
+    <row r="78" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="5">
         <v>0</v>
       </c>
       <c r="I78" s="3">
@@ -20380,12 +20393,12 @@
       </c>
       <c r="BJ78" s="3"/>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>177</v>
@@ -20566,12 +20579,12 @@
       </c>
       <c r="BJ79" s="3"/>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>112</v>
@@ -20750,213 +20763,213 @@
       </c>
       <c r="BJ80" s="3"/>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A81" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>68</v>
+    <row r="81" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="5">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>1</v>
+        <v>3.2932000000000001</v>
       </c>
       <c r="J81" s="3">
-        <v>1</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="K81" s="3">
-        <v>1</v>
+        <v>3.1124000000000001</v>
       </c>
       <c r="L81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="M81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="N81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="O81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="P81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="Q81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="R81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="S81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="T81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="U81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="V81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="W81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="X81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="Y81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="Z81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AA81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AB81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AC81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AD81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AE81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AF81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AG81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AH81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AI81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AJ81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AK81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AL81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AM81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AN81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AO81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AP81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AQ81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AR81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AS81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AT81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AU81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AV81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AW81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AX81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AY81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="AZ81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BA81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BB81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BC81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BD81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BE81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BF81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BG81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BH81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BI81" s="3">
-        <v>1</v>
+        <v>3.1959</v>
       </c>
       <c r="BJ81" s="3"/>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A82" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>231</v>
+    <row r="82" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="7"/>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <v>0</v>
       </c>
       <c r="I82" s="3">
@@ -21120,23 +21133,25 @@
       </c>
       <c r="BJ82" s="3"/>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>138</v>
+        <v>231</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="G83" s="4" t="s">
         <v>140</v>
       </c>
@@ -21304,27 +21319,27 @@
       </c>
       <c r="BJ83" s="3"/>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>39</v>
+    <row r="84" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="5">
         <v>0</v>
       </c>
       <c r="I84" s="3">
@@ -21488,29 +21503,27 @@
       </c>
       <c r="BJ84" s="3"/>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A85" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>239</v>
+    <row r="85" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" s="5" t="s">
+      <c r="F85" s="7"/>
+      <c r="G85" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>0</v>
       </c>
       <c r="I85" s="3">
@@ -21674,27 +21687,27 @@
       </c>
       <c r="BJ85" s="3"/>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A86" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>240</v>
+    <row r="86" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>0</v>
       </c>
       <c r="I86" s="3">
@@ -21858,27 +21871,29 @@
       </c>
       <c r="BJ86" s="3"/>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" s="4" t="s">
+    <row r="87" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="4" t="s">
+      <c r="F87" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="5">
         <v>0</v>
       </c>
       <c r="I87" s="3">
@@ -22042,27 +22057,27 @@
       </c>
       <c r="BJ87" s="3"/>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A88" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>177</v>
+    <row r="88" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="E88" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="5">
         <v>0</v>
       </c>
       <c r="I88" s="3">
@@ -22226,425 +22241,375 @@
       </c>
       <c r="BJ88" s="3"/>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A89" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>759</v>
+    <row r="89" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="E89" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16" t="s">
+      <c r="F89" s="7"/>
+      <c r="G89" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H89" s="4">
         <v>0</v>
       </c>
-      <c r="I89" s="16">
-        <v>1</v>
-      </c>
-      <c r="J89" s="16">
-        <v>1</v>
-      </c>
-      <c r="K89" s="16">
-        <v>1</v>
-      </c>
-      <c r="L89" s="16">
-        <v>1</v>
-      </c>
-      <c r="M89" s="16">
-        <v>1</v>
-      </c>
-      <c r="N89" s="16">
-        <v>1</v>
-      </c>
-      <c r="O89" s="16">
-        <v>1</v>
-      </c>
-      <c r="P89" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="16">
-        <v>1</v>
-      </c>
-      <c r="R89" s="16">
-        <v>1</v>
-      </c>
-      <c r="S89" s="16">
-        <v>1</v>
-      </c>
-      <c r="T89" s="16">
-        <v>1</v>
-      </c>
-      <c r="U89" s="16">
-        <v>1</v>
-      </c>
-      <c r="V89" s="16">
-        <v>1</v>
-      </c>
-      <c r="W89" s="16">
-        <v>1</v>
-      </c>
-      <c r="X89" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AK89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AM89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AO89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AP89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AQ89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AR89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AS89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AT89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AU89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AV89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AW89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AX89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AY89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AZ89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BA89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BB89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BC89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BD89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BE89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BF89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BG89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BH89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BI89" s="16">
-        <v>1</v>
-      </c>
-      <c r="BJ89" s="1"/>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="M89" s="3">
+        <v>1</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3">
+        <v>1</v>
+      </c>
+      <c r="P89" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>1</v>
+      </c>
+      <c r="R89" s="3">
+        <v>1</v>
+      </c>
+      <c r="S89" s="3">
+        <v>1</v>
+      </c>
+      <c r="T89" s="3">
+        <v>1</v>
+      </c>
+      <c r="U89" s="3">
+        <v>1</v>
+      </c>
+      <c r="V89" s="3">
+        <v>1</v>
+      </c>
+      <c r="W89" s="3">
+        <v>1</v>
+      </c>
+      <c r="X89" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI89" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ89" s="3"/>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A90" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="E90" s="16" t="s">
+    <row r="90" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H90" s="16">
+      <c r="H90" s="4">
         <v>0</v>
       </c>
-      <c r="I90" s="16">
-        <v>1</v>
-      </c>
-      <c r="J90" s="16">
-        <v>1</v>
-      </c>
-      <c r="K90" s="16">
-        <v>1</v>
-      </c>
-      <c r="L90" s="16">
-        <f t="shared" ref="L90:AQ90" si="0">L89</f>
-        <v>1</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AL90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AO90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AP90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AQ90" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AR90" s="16">
-        <f t="shared" ref="AR90:BI90" si="1">AR89</f>
-        <v>1</v>
-      </c>
-      <c r="AS90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AT90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AU90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AV90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AW90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AX90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AY90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AZ90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BA90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BB90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BC90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BD90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BF90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BG90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BH90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BI90" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BJ90" s="1"/>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+      <c r="M90" s="3">
+        <v>1</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3">
+        <v>1</v>
+      </c>
+      <c r="P90" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>1</v>
+      </c>
+      <c r="R90" s="3">
+        <v>1</v>
+      </c>
+      <c r="S90" s="3">
+        <v>1</v>
+      </c>
+      <c r="T90" s="3">
+        <v>1</v>
+      </c>
+      <c r="U90" s="3">
+        <v>1</v>
+      </c>
+      <c r="V90" s="3">
+        <v>1</v>
+      </c>
+      <c r="W90" s="3">
+        <v>1</v>
+      </c>
+      <c r="X90" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI90" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ90" s="3"/>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>757</v>
       </c>
@@ -22652,17 +22617,15 @@
         <v>758</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>16</v>
+        <v>759</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>783</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>176</v>
-      </c>
+      <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
         <v>140</v>
       </c>
@@ -22670,185 +22633,183 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <v>1.3299999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="J91" s="16">
-        <v>1.49E-2</v>
+        <v>1</v>
       </c>
       <c r="K91" s="16">
-        <v>1.5699999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="L91" s="16">
-        <v>1.3299999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="N91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="O91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="P91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="R91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="S91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="T91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="U91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="V91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="W91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="X91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="Y91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="Z91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AA91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AB91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AC91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AD91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AE91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AF91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AG91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AH91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AI91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AJ91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AK91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AL91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AM91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AN91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AO91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AP91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AQ91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AR91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AS91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AT91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AU91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AV91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AW91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AX91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AY91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="AZ91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BA91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BB91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BC91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BD91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BE91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BF91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BG91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BH91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BI91" s="16">
-        <v>1.43E-2</v>
+        <v>1</v>
       </c>
       <c r="BJ91" s="1"/>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>757</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>157</v>
+      <c r="C92" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>784</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>176</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F92" s="16"/>
       <c r="G92" s="16" t="s">
         <v>140</v>
       </c>
@@ -22856,167 +22817,217 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="J92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="K92" s="16">
-        <v>2.4199999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="L92" s="16">
-        <v>2.3300000000000001E-2</v>
+        <f t="shared" ref="L92:AQ92" si="0">L91</f>
+        <v>1</v>
       </c>
       <c r="M92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="S92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="T92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="V92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Y92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Z92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AA92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AC92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AD92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AE92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AF92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AG92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AH92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AI92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AJ92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AK92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AL92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AM92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AN92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AO92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AP92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AQ92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AR92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" ref="AR92:BI92" si="1">AR91</f>
+        <v>1</v>
       </c>
       <c r="AS92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AT92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AU92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AV92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AW92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AX92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AY92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AZ92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BA92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BB92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BC92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BD92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BE92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BF92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BG92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BH92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BI92" s="16">
-        <v>2.3699999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BJ92" s="1"/>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>757</v>
       </c>
@@ -23024,10 +23035,10 @@
         <v>758</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>139</v>
@@ -23042,167 +23053,167 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <v>2.9999999999999997E-4</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="J93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.49E-2</v>
       </c>
       <c r="K93" s="16">
-        <v>5.0000000000000001E-4</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="L93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="M93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="N93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="O93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="P93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="Q93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="R93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="S93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="T93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="U93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="V93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="W93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="X93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="Y93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="Z93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AA93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AB93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AC93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AD93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AE93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AF93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AG93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AH93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AI93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AJ93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AK93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AL93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AM93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AN93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AO93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AP93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AQ93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AR93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AS93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AT93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AU93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AV93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AW93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AX93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AY93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="AZ93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BA93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BB93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BC93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BD93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BE93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BF93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BG93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BH93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BI93" s="16">
-        <v>4.0000000000000002E-4</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BJ93" s="1"/>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>757</v>
       </c>
@@ -23210,10 +23221,10 @@
         <v>758</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>760</v>
+        <v>157</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>139</v>
@@ -23228,540 +23239,544 @@
         <v>0</v>
       </c>
       <c r="I94" s="16">
-        <v>3.3E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="J94" s="16">
-        <v>3.5999999999999999E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="K94" s="16">
-        <v>3.5000000000000001E-3</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="L94" s="16">
-        <v>3.0999999999999999E-3</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="M94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="O94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="P94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="Q94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="R94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="S94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="T94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="U94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="V94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="W94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="X94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="Y94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="Z94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AA94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AB94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AC94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AD94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AE94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AF94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AG94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AH94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AI94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AJ94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AK94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AL94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AM94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AN94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AO94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AP94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AQ94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AR94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AS94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AT94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AU94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AV94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AW94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AX94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AY94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="AZ94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BA94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BB94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BC94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BD94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BE94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BF94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BG94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BH94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BI94" s="16">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="BJ94" s="1"/>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H95" s="16">
+        <v>0</v>
+      </c>
+      <c r="I95" s="16">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K95" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="U95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="V95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="X95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Y95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Z95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AA95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AB95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AC95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AD95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AE95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AF95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AG95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AH95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AI95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AJ95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AK95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AL95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AM95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AN95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AO95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AP95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AQ95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AR95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AS95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AT95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AU95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AV95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AW95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AX95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AY95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AZ95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BA95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BB95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BC95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BD95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BE95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BF95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BG95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BH95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BI95" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BJ95" s="1"/>
+    </row>
+    <row r="96" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H96" s="16">
+        <v>0</v>
+      </c>
+      <c r="I96" s="16">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J96" s="16">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="K96" s="16">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="L96" s="16">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="O96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="P96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Q96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="R96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="S96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="T96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="U96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="V96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="W96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="X96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Y96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Z96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AA96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AB96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AC96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AD96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AE96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AF96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AG96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AH96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AI96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AJ96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AK96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AL96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AM96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AN96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AO96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AP96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AQ96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AR96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AS96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AT96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AU96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AV96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AW96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AX96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AY96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AZ96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BA96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BB96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BC96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BD96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BE96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BF96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BG96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BH96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BI96" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BJ96" s="1"/>
+    </row>
+    <row r="97" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1.0196000000000001</v>
-      </c>
-      <c r="J95" s="3">
-        <v>1.0431999999999999</v>
-      </c>
-      <c r="K95" s="3">
-        <v>1.0341</v>
-      </c>
-      <c r="L95" s="3">
-        <v>1.0328999999999999</v>
-      </c>
-      <c r="M95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="N95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="O95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="P95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="R95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="S95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="T95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="U95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="V95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="W95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="X95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="Y95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="Z95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AB95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AC95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AD95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AE95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AF95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AG95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AH95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AI95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AJ95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AK95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AL95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AM95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AN95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AO95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AP95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AQ95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AR95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AS95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AT95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AU95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AV95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AW95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AX95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AY95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="AZ95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BA95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BB95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BC95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BD95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BE95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BF95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BG95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BH95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BI95" s="3">
-        <v>1.0324500000000001</v>
-      </c>
-      <c r="BJ95" s="3"/>
-    </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H96" s="4">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>1</v>
-      </c>
-      <c r="J96" s="3">
-        <v>1</v>
-      </c>
-      <c r="K96" s="3">
-        <v>1</v>
-      </c>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
-      <c r="M96" s="3">
-        <v>1</v>
-      </c>
-      <c r="N96" s="3">
-        <v>1</v>
-      </c>
-      <c r="O96" s="3">
-        <v>1</v>
-      </c>
-      <c r="P96" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>1</v>
-      </c>
-      <c r="R96" s="3">
-        <v>1</v>
-      </c>
-      <c r="S96" s="3">
-        <v>1</v>
-      </c>
-      <c r="T96" s="3">
-        <v>1</v>
-      </c>
-      <c r="U96" s="3">
-        <v>1</v>
-      </c>
-      <c r="V96" s="3">
-        <v>1</v>
-      </c>
-      <c r="W96" s="3">
-        <v>1</v>
-      </c>
-      <c r="X96" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY96" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BC96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI96" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ96" s="3"/>
-    </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>781</v>
@@ -23769,14 +23784,14 @@
       <c r="D97" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F97" s="7"/>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <v>0</v>
       </c>
       <c r="I97" s="3">
@@ -23940,27 +23955,27 @@
       </c>
       <c r="BJ97" s="3"/>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A98" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="5" t="s">
+    <row r="98" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="7"/>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <v>0</v>
       </c>
       <c r="I98" s="3">
@@ -24124,12 +24139,12 @@
       </c>
       <c r="BJ98" s="3"/>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A99" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>156</v>
+    <row r="99" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>781</v>
@@ -24137,14 +24152,14 @@
       <c r="D99" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F99" s="7"/>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="5">
         <v>0</v>
       </c>
       <c r="I99" s="3">
@@ -24308,27 +24323,27 @@
       </c>
       <c r="BJ99" s="3"/>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A100" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" s="4" t="s">
+    <row r="100" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="7"/>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="5">
         <v>0</v>
       </c>
       <c r="I100" s="3">
@@ -24492,12 +24507,12 @@
       </c>
       <c r="BJ100" s="3"/>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>152</v>
+    <row r="101" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>781</v>
@@ -24505,14 +24520,14 @@
       <c r="D101" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F101" s="7"/>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="4">
         <v>0</v>
       </c>
       <c r="I101" s="3">
@@ -24676,27 +24691,27 @@
       </c>
       <c r="BJ101" s="3"/>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A102" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="5" t="s">
+    <row r="102" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="7"/>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="4">
         <v>0</v>
       </c>
       <c r="I102" s="3">
@@ -24860,27 +24875,27 @@
       </c>
       <c r="BJ102" s="3"/>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A103" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="17" t="s">
+    <row r="103" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>781</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F103" s="7"/>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="5">
         <v>0</v>
       </c>
       <c r="I103" s="3">
@@ -25044,27 +25059,27 @@
       </c>
       <c r="BJ103" s="3"/>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A104" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E104" s="4" t="s">
+    <row r="104" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="7"/>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="5">
         <v>0</v>
       </c>
       <c r="I104" s="3">
@@ -25228,27 +25243,27 @@
       </c>
       <c r="BJ104" s="3"/>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A105" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C105" s="5" t="s">
+    <row r="105" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>781</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F105" s="7"/>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="4">
         <v>0</v>
       </c>
       <c r="I105" s="3">
@@ -25412,27 +25427,27 @@
       </c>
       <c r="BJ105" s="3"/>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A106" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="5" t="s">
+    <row r="106" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="4">
         <v>0</v>
       </c>
       <c r="I106" s="3">
@@ -25596,12 +25611,12 @@
       </c>
       <c r="BJ106" s="3"/>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A107" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>169</v>
+    <row r="107" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>781</v>
@@ -25609,14 +25624,14 @@
       <c r="D107" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F107" s="7"/>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="5">
         <v>0</v>
       </c>
       <c r="I107" s="3">
@@ -25780,27 +25795,27 @@
       </c>
       <c r="BJ107" s="3"/>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A108" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E108" s="4" t="s">
+    <row r="108" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="7"/>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="5">
         <v>0</v>
       </c>
       <c r="I108" s="3">
@@ -25964,12 +25979,12 @@
       </c>
       <c r="BJ108" s="3"/>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A109" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>165</v>
+    <row r="109" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>781</v>
@@ -25977,14 +25992,14 @@
       <c r="D109" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="4">
         <v>0</v>
       </c>
       <c r="I109" s="3">
@@ -26148,27 +26163,27 @@
       </c>
       <c r="BJ109" s="3"/>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A110" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E110" s="5" t="s">
+    <row r="110" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="7"/>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="4">
         <v>0</v>
       </c>
       <c r="I110" s="3">
@@ -26332,7 +26347,396 @@
       </c>
       <c r="BJ110" s="3"/>
     </row>
+    <row r="111" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1.0196000000000001</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1.0431999999999999</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1.0341</v>
+      </c>
+      <c r="L111" s="3">
+        <v>1.0328999999999999</v>
+      </c>
+      <c r="M111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="O111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="P111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="R111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="S111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="T111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="U111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="V111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="W111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="X111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="Y111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="Z111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AB111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AC111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AD111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AE111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AF111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AG111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AH111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AI111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AJ111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AK111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AL111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AM111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AN111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AO111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AP111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AQ111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AR111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AS111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AT111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AU111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AV111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AW111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AX111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AY111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="AZ111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BA111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BB111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BC111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BD111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BE111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BF111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BG111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BH111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BI111" s="3">
+        <v>1.0324500000000001</v>
+      </c>
+      <c r="BJ111" s="3"/>
+    </row>
+    <row r="112" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H112" s="5">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3">
+        <v>1</v>
+      </c>
+      <c r="P112" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>1</v>
+      </c>
+      <c r="R112" s="3">
+        <v>1</v>
+      </c>
+      <c r="S112" s="3">
+        <v>1</v>
+      </c>
+      <c r="T112" s="3">
+        <v>1</v>
+      </c>
+      <c r="U112" s="3">
+        <v>1</v>
+      </c>
+      <c r="V112" s="3">
+        <v>1</v>
+      </c>
+      <c r="W112" s="3">
+        <v>1</v>
+      </c>
+      <c r="X112" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI112" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ112" s="3"/>
+    </row>
+    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:BJ114" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PP_BGSICE"/>
+        <filter val="PP_BMSTST"/>
+        <filter val="PP_CHP"/>
+        <filter val="PP_COA"/>
+        <filter val="PP_CRU"/>
+        <filter val="PP_DSLICE"/>
+        <filter val="PP_DSLTGS"/>
+        <filter val="PP_FOIICE"/>
+        <filter val="PP_FOITST"/>
+        <filter val="PP_NGSTGS"/>
+        <filter val="PP_SUG"/>
+        <filter val="PP_TPP"/>
+        <filter val="PP_WASICE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -26348,19 +26752,19 @@
       <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26542,7 +26946,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>263</v>
       </c>
@@ -26722,7 +27126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>263</v>
       </c>
@@ -26904,7 +27308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>267</v>
       </c>
@@ -27084,7 +27488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>267</v>
       </c>
@@ -27266,7 +27670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>271</v>
       </c>
@@ -27446,7 +27850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>271</v>
       </c>
@@ -27628,7 +28032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>275</v>
       </c>
@@ -27808,7 +28212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>275</v>
       </c>
@@ -27990,7 +28394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>279</v>
       </c>
@@ -28170,7 +28574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>279</v>
       </c>
@@ -28352,7 +28756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>283</v>
       </c>
@@ -28532,7 +28936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>283</v>
       </c>
@@ -28714,7 +29118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>287</v>
       </c>
@@ -28894,7 +29298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>287</v>
       </c>
@@ -29076,7 +29480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>290</v>
       </c>
@@ -29256,7 +29660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>290</v>
       </c>
@@ -29438,7 +29842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>294</v>
       </c>
@@ -29618,7 +30022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>294</v>
       </c>
@@ -29800,7 +30204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>298</v>
       </c>
@@ -29980,7 +30384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>298</v>
       </c>
@@ -30162,7 +30566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>302</v>
       </c>
@@ -30342,7 +30746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>302</v>
       </c>
@@ -30524,7 +30928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>306</v>
       </c>
@@ -30704,7 +31108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>306</v>
       </c>
@@ -30886,7 +31290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>310</v>
       </c>
@@ -31066,7 +31470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>310</v>
       </c>
@@ -31248,7 +31652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>314</v>
       </c>
@@ -31428,7 +31832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>314</v>
       </c>
@@ -31610,7 +32014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>318</v>
       </c>
@@ -31790,7 +32194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>318</v>
       </c>
@@ -31972,7 +32376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>322</v>
       </c>
@@ -32152,7 +32556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>322</v>
       </c>
@@ -32334,7 +32738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>326</v>
       </c>
@@ -32514,7 +32918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>326</v>
       </c>
@@ -32696,7 +33100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>330</v>
       </c>
@@ -32876,7 +33280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>330</v>
       </c>
@@ -33058,7 +33462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>334</v>
       </c>
@@ -33238,7 +33642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>334</v>
       </c>
@@ -33420,7 +33824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>338</v>
       </c>
@@ -33600,7 +34004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>338</v>
       </c>
@@ -33782,7 +34186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>342</v>
       </c>
@@ -33962,7 +34366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>342</v>
       </c>
@@ -34144,7 +34548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>346</v>
       </c>
@@ -34324,7 +34728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>346</v>
       </c>
@@ -34506,7 +34910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>350</v>
       </c>
@@ -34686,7 +35090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>350</v>
       </c>
@@ -34868,7 +35272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>354</v>
       </c>
@@ -35048,7 +35452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>354</v>
       </c>
@@ -35230,7 +35634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>358</v>
       </c>
@@ -35410,7 +35814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>358</v>
       </c>
@@ -35592,7 +35996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>362</v>
       </c>
@@ -35772,7 +36176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>362</v>
       </c>
@@ -35954,7 +36358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>366</v>
       </c>
@@ -36134,7 +36538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>366</v>
       </c>
@@ -36316,7 +36720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>370</v>
       </c>
@@ -36496,7 +36900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>370</v>
       </c>
@@ -36678,7 +37082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>374</v>
       </c>
@@ -36858,7 +37262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>374</v>
       </c>
@@ -37040,7 +37444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>378</v>
       </c>
@@ -37220,7 +37624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>378</v>
       </c>
@@ -37402,7 +37806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>382</v>
       </c>
@@ -37582,7 +37986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>382</v>
       </c>
@@ -37764,7 +38168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>386</v>
       </c>
@@ -37944,7 +38348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>386</v>
       </c>
@@ -38126,7 +38530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>390</v>
       </c>
@@ -38306,7 +38710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>390</v>
       </c>
@@ -38488,7 +38892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>394</v>
       </c>
@@ -38668,7 +39072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>394</v>
       </c>
@@ -38850,7 +39254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>398</v>
       </c>
@@ -39030,7 +39434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>398</v>
       </c>
@@ -39212,7 +39616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>402</v>
       </c>
@@ -39392,7 +39796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>402</v>
       </c>
@@ -39574,7 +39978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>406</v>
       </c>
@@ -39754,7 +40158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>406</v>
       </c>
@@ -39936,7 +40340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>410</v>
       </c>
@@ -40116,7 +40520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>410</v>
       </c>
@@ -40298,7 +40702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>414</v>
       </c>
@@ -40478,7 +40882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>414</v>
       </c>
@@ -40660,7 +41064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>418</v>
       </c>
@@ -40840,7 +41244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>418</v>
       </c>
@@ -41022,7 +41426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>422</v>
       </c>
@@ -41202,7 +41606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>422</v>
       </c>
@@ -41384,7 +41788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>426</v>
       </c>
@@ -41564,7 +41968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>426</v>
       </c>
@@ -41746,7 +42150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>430</v>
       </c>
@@ -41926,7 +42330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>430</v>
       </c>
@@ -42108,7 +42512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>728</v>
       </c>
@@ -42288,7 +42692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>728</v>
       </c>
@@ -42470,7 +42874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>766</v>
       </c>
@@ -42652,7 +43056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>766</v>
       </c>
@@ -42834,7 +43238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>767</v>
       </c>
@@ -43014,7 +43418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>767</v>
       </c>
@@ -43196,7 +43600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>769</v>
       </c>
@@ -43376,7 +43780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>769</v>
       </c>
@@ -43558,7 +43962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>768</v>
       </c>
@@ -43738,7 +44142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>768</v>
       </c>
@@ -43920,7 +44324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>751</v>
       </c>
@@ -44100,7 +44504,7 @@
         <v>4.0891490585390503E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>751</v>
       </c>
@@ -44282,7 +44686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>747</v>
       </c>
@@ -44462,7 +44866,7 @@
         <v>7.6373441414846182E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>747</v>
       </c>
@@ -44644,7 +45048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>750</v>
       </c>
@@ -44824,7 +45228,7 @@
         <v>0.29229728263069926</v>
       </c>
     </row>
-    <row r="103" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>750</v>
       </c>
@@ -45006,7 +45410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>748</v>
       </c>
@@ -45186,7 +45590,7 @@
         <v>0.50842289343234259</v>
       </c>
     </row>
-    <row r="105" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>748</v>
       </c>
@@ -45368,7 +45772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>756</v>
       </c>
@@ -45548,7 +45952,7 @@
         <v>0.15075098921008312</v>
       </c>
     </row>
-    <row r="107" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>756</v>
       </c>
@@ -45730,7 +46134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>761</v>
       </c>
@@ -45910,7 +46314,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>761</v>
       </c>
@@ -46092,7 +46496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>761</v>
       </c>
@@ -46272,7 +46676,7 @@
         <v>0.34010000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>761</v>
       </c>
@@ -46481,19 +46885,19 @@
       <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="60" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="60" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -46675,7 +47079,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>434</v>
       </c>
@@ -46697,7 +47101,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>434</v>
       </c>
@@ -46721,7 +47125,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>438</v>
       </c>
@@ -46743,7 +47147,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>438</v>
       </c>
@@ -46767,7 +47171,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>442</v>
       </c>
@@ -46789,7 +47193,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>442</v>
       </c>
@@ -46813,7 +47217,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>446</v>
       </c>
@@ -46835,7 +47239,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>446</v>
       </c>
@@ -46859,7 +47263,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>450</v>
       </c>
@@ -46881,7 +47285,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>450</v>
       </c>
@@ -46905,7 +47309,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>454</v>
       </c>
@@ -46927,7 +47331,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>454</v>
       </c>
@@ -46951,7 +47355,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>458</v>
       </c>
@@ -46973,7 +47377,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>458</v>
       </c>
@@ -46997,7 +47401,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>462</v>
       </c>
@@ -47019,7 +47423,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>462</v>
       </c>
@@ -47043,7 +47447,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>466</v>
       </c>
@@ -47065,7 +47469,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>466</v>
       </c>
@@ -47089,7 +47493,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>470</v>
       </c>
@@ -47111,7 +47515,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>470</v>
       </c>
@@ -47135,7 +47539,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>474</v>
       </c>
@@ -47157,7 +47561,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>474</v>
       </c>
@@ -47181,7 +47585,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>478</v>
       </c>
@@ -47203,7 +47607,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>478</v>
       </c>
@@ -47227,7 +47631,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>482</v>
       </c>
@@ -47249,7 +47653,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>482</v>
       </c>
@@ -47273,7 +47677,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>486</v>
       </c>
@@ -47295,7 +47699,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>486</v>
       </c>
@@ -47319,7 +47723,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>490</v>
       </c>
@@ -47341,7 +47745,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>490</v>
       </c>
@@ -47365,7 +47769,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>494</v>
       </c>
@@ -47387,7 +47791,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>494</v>
       </c>
@@ -47411,7 +47815,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>498</v>
       </c>
@@ -47433,7 +47837,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>498</v>
       </c>
@@ -47457,7 +47861,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>502</v>
       </c>
@@ -47479,7 +47883,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>502</v>
       </c>
@@ -47503,7 +47907,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>506</v>
       </c>
@@ -47525,7 +47929,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>506</v>
       </c>
@@ -47549,7 +47953,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>510</v>
       </c>
@@ -47571,7 +47975,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>510</v>
       </c>
@@ -47595,7 +47999,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>514</v>
       </c>
@@ -47617,7 +48021,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>514</v>
       </c>
@@ -47641,7 +48045,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>518</v>
       </c>
@@ -47663,7 +48067,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>518</v>
       </c>
@@ -47687,7 +48091,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>522</v>
       </c>
@@ -47709,7 +48113,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>522</v>
       </c>
@@ -47733,7 +48137,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>526</v>
       </c>
@@ -47755,7 +48159,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>526</v>
       </c>
@@ -47779,7 +48183,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>530</v>
       </c>
@@ -47801,7 +48205,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>530</v>
       </c>
@@ -47825,7 +48229,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>534</v>
       </c>
@@ -47847,7 +48251,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>534</v>
       </c>
@@ -47871,7 +48275,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>538</v>
       </c>
@@ -47893,7 +48297,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>538</v>
       </c>
@@ -47937,26 +48341,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BH146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.84375" customWidth="1"/>
-    <col min="13" max="60" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="60" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -48138,7 +48542,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>542</v>
       </c>
@@ -48318,7 +48722,7 @@
         <v>0.95352000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>542</v>
       </c>
@@ -48498,7 +48902,7 @@
         <v>0.78039000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>542</v>
       </c>
@@ -48520,7 +48924,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>741</v>
       </c>
@@ -48542,7 +48946,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>741</v>
       </c>
@@ -48564,7 +48968,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>545</v>
       </c>
@@ -48764,7 +49168,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>545</v>
       </c>
@@ -48786,7 +49190,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>547</v>
       </c>
@@ -48986,7 +49390,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>547</v>
       </c>
@@ -49008,7 +49412,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>549</v>
       </c>
@@ -49208,7 +49612,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>549</v>
       </c>
@@ -49230,7 +49634,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>551</v>
       </c>
@@ -49430,7 +49834,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>551</v>
       </c>
@@ -49452,7 +49856,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>553</v>
       </c>
@@ -49632,7 +50036,7 @@
         <v>1.09056</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>553</v>
       </c>
@@ -49812,7 +50216,7 @@
         <v>0.91984999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>553</v>
       </c>
@@ -49834,7 +50238,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>556</v>
       </c>
@@ -50034,7 +50438,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>556</v>
       </c>
@@ -50056,7 +50460,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>558</v>
       </c>
@@ -50256,7 +50660,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>558</v>
       </c>
@@ -50278,7 +50682,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>560</v>
       </c>
@@ -50478,7 +50882,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>560</v>
       </c>
@@ -50500,7 +50904,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>562</v>
       </c>
@@ -50700,7 +51104,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>562</v>
       </c>
@@ -50722,7 +51126,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>564</v>
       </c>
@@ -50776,7 +51180,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>564</v>
       </c>
@@ -50798,7 +51202,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>566</v>
       </c>
@@ -50978,7 +51382,7 @@
         <v>0.82220000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>566</v>
       </c>
@@ -51158,7 +51562,7 @@
         <v>0.67140999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>566</v>
       </c>
@@ -51180,7 +51584,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>569</v>
       </c>
@@ -51380,7 +51784,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>569</v>
       </c>
@@ -51402,7 +51806,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>571</v>
       </c>
@@ -51602,7 +52006,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>571</v>
       </c>
@@ -51624,7 +52028,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>573</v>
       </c>
@@ -51804,7 +52208,7 @@
         <v>0.82220000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>573</v>
       </c>
@@ -51984,7 +52388,7 @@
         <v>0.67140999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>573</v>
       </c>
@@ -52006,7 +52410,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>575</v>
       </c>
@@ -52206,7 +52610,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>575</v>
       </c>
@@ -52228,7 +52632,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>577</v>
       </c>
@@ -52282,7 +52686,7 @@
       <c r="AM40" s="9"/>
       <c r="AN40" s="9"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>577</v>
       </c>
@@ -52304,7 +52708,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>579</v>
       </c>
@@ -52326,7 +52730,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>579</v>
       </c>
@@ -52348,7 +52752,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>582</v>
       </c>
@@ -52370,7 +52774,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>582</v>
       </c>
@@ -52392,7 +52796,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>584</v>
       </c>
@@ -52414,7 +52818,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>584</v>
       </c>
@@ -52436,7 +52840,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>586</v>
       </c>
@@ -52636,7 +53040,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>586</v>
       </c>
@@ -52658,7 +53062,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>589</v>
       </c>
@@ -52858,7 +53262,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>589</v>
       </c>
@@ -52880,7 +53284,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>591</v>
       </c>
@@ -53080,7 +53484,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>591</v>
       </c>
@@ -53102,7 +53506,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>594</v>
       </c>
@@ -53124,7 +53528,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>594</v>
       </c>
@@ -53146,7 +53550,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>596</v>
       </c>
@@ -53326,7 +53730,7 @@
         <v>0.77081</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>596</v>
       </c>
@@ -53506,7 +53910,7 @@
         <v>0.61845000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>596</v>
       </c>
@@ -53528,7 +53932,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>598</v>
       </c>
@@ -53728,7 +54132,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>598</v>
       </c>
@@ -53750,7 +54154,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>600</v>
       </c>
@@ -53804,7 +54208,7 @@
       <c r="AM61" s="9"/>
       <c r="AN61" s="9"/>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>600</v>
       </c>
@@ -53826,7 +54230,7 @@
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>602</v>
       </c>
@@ -54006,7 +54410,7 @@
         <v>0.90214000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>602</v>
       </c>
@@ -54186,7 +54590,7 @@
         <v>0.73009999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>602</v>
       </c>
@@ -54208,7 +54612,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>605</v>
       </c>
@@ -54408,7 +54812,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>605</v>
       </c>
@@ -54430,7 +54834,7 @@
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>607</v>
       </c>
@@ -54630,7 +55034,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>607</v>
       </c>
@@ -54652,7 +55056,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>609</v>
       </c>
@@ -54852,7 +55256,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>609</v>
       </c>
@@ -54874,7 +55278,7 @@
       </c>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>611</v>
       </c>
@@ -55054,7 +55458,7 @@
         <v>0.90214000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>611</v>
       </c>
@@ -55234,7 +55638,7 @@
         <v>0.73009999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>611</v>
       </c>
@@ -55256,7 +55660,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>613</v>
       </c>
@@ -55456,7 +55860,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>613</v>
       </c>
@@ -55478,7 +55882,7 @@
       </c>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>615</v>
       </c>
@@ -55532,7 +55936,7 @@
       <c r="AM77" s="9"/>
       <c r="AN77" s="9"/>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>615</v>
       </c>
@@ -55554,7 +55958,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>617</v>
       </c>
@@ -55734,7 +56138,7 @@
         <v>0.97636000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>617</v>
       </c>
@@ -55914,7 +56318,7 @@
         <v>0.80096999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>617</v>
       </c>
@@ -55936,7 +56340,7 @@
       </c>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>620</v>
       </c>
@@ -55958,7 +56362,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>620</v>
       </c>
@@ -55980,7 +56384,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>622</v>
       </c>
@@ -56180,7 +56584,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>622</v>
       </c>
@@ -56202,7 +56606,7 @@
       </c>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>624</v>
       </c>
@@ -56402,7 +56806,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>624</v>
       </c>
@@ -56424,7 +56828,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>626</v>
       </c>
@@ -56604,7 +57008,7 @@
         <v>0.97636000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>626</v>
       </c>
@@ -56784,7 +57188,7 @@
         <v>0.80096999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>626</v>
       </c>
@@ -56806,7 +57210,7 @@
       </c>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>628</v>
       </c>
@@ -57006,7 +57410,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>628</v>
       </c>
@@ -57028,7 +57432,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>630</v>
       </c>
@@ -57228,7 +57632,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>630</v>
       </c>
@@ -57250,7 +57654,7 @@
       </c>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>632</v>
       </c>
@@ -57430,7 +57834,7 @@
         <v>3.6450902030000001</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>632</v>
       </c>
@@ -57610,7 +58014,7 @@
         <v>1.737309279</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>632</v>
       </c>
@@ -57632,7 +58036,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>635</v>
       </c>
@@ -57832,7 +58236,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>635</v>
       </c>
@@ -57854,7 +58258,7 @@
       </c>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>637</v>
       </c>
@@ -58054,7 +58458,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>637</v>
       </c>
@@ -58076,7 +58480,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>639</v>
       </c>
@@ -58276,7 +58680,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>639</v>
       </c>
@@ -58298,7 +58702,7 @@
       </c>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>641</v>
       </c>
@@ -58498,7 +58902,7 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>641</v>
       </c>
@@ -58520,7 +58924,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>643</v>
       </c>
@@ -58720,7 +59124,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>643</v>
       </c>
@@ -58742,7 +59146,7 @@
       </c>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>645</v>
       </c>
@@ -58922,7 +59326,7 @@
         <v>3.1860280909999998</v>
       </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>645</v>
       </c>
@@ -59102,7 +59506,7 @@
         <v>1.843725842</v>
       </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>645</v>
       </c>
@@ -59124,7 +59528,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>648</v>
       </c>
@@ -59146,7 +59550,7 @@
       </c>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>648</v>
       </c>
@@ -59168,7 +59572,7 @@
       </c>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>650</v>
       </c>
@@ -59368,7 +59772,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>650</v>
       </c>
@@ -59390,7 +59794,7 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>652</v>
       </c>
@@ -59590,7 +59994,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>652</v>
       </c>
@@ -59612,7 +60016,7 @@
       </c>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>654</v>
       </c>
@@ -59812,7 +60216,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>654</v>
       </c>
@@ -59834,7 +60238,7 @@
       </c>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>656</v>
       </c>
@@ -60034,7 +60438,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>656</v>
       </c>
@@ -60056,7 +60460,7 @@
       </c>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>658</v>
       </c>
@@ -60256,7 +60660,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>658</v>
       </c>
@@ -60278,7 +60682,7 @@
       </c>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>660</v>
       </c>
@@ -60458,7 +60862,7 @@
         <v>1.0334607250000001</v>
       </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>660</v>
       </c>
@@ -60638,7 +61042,7 @@
         <v>0.75907714000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>660</v>
       </c>
@@ -60660,7 +61064,7 @@
       </c>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>663</v>
       </c>
@@ -60714,7 +61118,7 @@
       <c r="AM126" s="13"/>
       <c r="AN126" s="13"/>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>663</v>
       </c>
@@ -60736,7 +61140,7 @@
       </c>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>665</v>
       </c>
@@ -60936,7 +61340,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>665</v>
       </c>
@@ -60958,7 +61362,7 @@
       </c>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>667</v>
       </c>
@@ -61158,7 +61562,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>667</v>
       </c>
@@ -61180,7 +61584,7 @@
       </c>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>669</v>
       </c>
@@ -61360,7 +61764,7 @@
         <v>1.0334607250000001</v>
       </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>669</v>
       </c>
@@ -61540,7 +61944,7 @@
         <v>0.75907714000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>669</v>
       </c>
@@ -61562,7 +61966,7 @@
       </c>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>671</v>
       </c>
@@ -61762,7 +62166,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="136" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>671</v>
       </c>
@@ -61784,7 +62188,7 @@
       </c>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>673</v>
       </c>
@@ -61984,7 +62388,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>673</v>
       </c>
@@ -62006,7 +62410,7 @@
       </c>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>675</v>
       </c>
@@ -62028,7 +62432,7 @@
       </c>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>675</v>
       </c>
@@ -62050,7 +62454,7 @@
       </c>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>678</v>
       </c>
@@ -62072,7 +62476,7 @@
       </c>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>678</v>
       </c>
@@ -62094,7 +62498,7 @@
       </c>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>681</v>
       </c>
@@ -62296,7 +62700,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>681</v>
       </c>
@@ -62318,7 +62722,7 @@
       </c>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>683</v>
       </c>
@@ -62340,7 +62744,7 @@
       </c>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>683</v>
       </c>
@@ -62378,19 +62782,19 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="60" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="60" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -62572,7 +62976,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>685</v>
       </c>
@@ -62594,7 +62998,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>685</v>
       </c>
@@ -62618,7 +63022,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>689</v>
       </c>
@@ -62640,7 +63044,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>689</v>
       </c>
@@ -62664,7 +63068,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>691</v>
       </c>
@@ -62686,7 +63090,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>691</v>
       </c>
@@ -62710,7 +63114,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>693</v>
       </c>
@@ -62732,7 +63136,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>693</v>
       </c>
@@ -62756,7 +63160,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>695</v>
       </c>
@@ -62778,7 +63182,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>695</v>
       </c>
@@ -62802,7 +63206,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>699</v>
       </c>
@@ -62824,7 +63228,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>699</v>
       </c>
@@ -62848,7 +63252,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>701</v>
       </c>
@@ -62870,7 +63274,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>701</v>
       </c>
@@ -62894,7 +63298,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>703</v>
       </c>
@@ -62916,7 +63320,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>703</v>
       </c>
@@ -62940,7 +63344,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>705</v>
       </c>
@@ -62962,7 +63366,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>705</v>
       </c>
@@ -62986,7 +63390,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>709</v>
       </c>
@@ -63008,7 +63412,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>709</v>
       </c>
@@ -63032,7 +63436,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>713</v>
       </c>
@@ -63054,7 +63458,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>713</v>
       </c>
@@ -63078,7 +63482,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>717</v>
       </c>
@@ -63100,7 +63504,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>717</v>
       </c>
@@ -63124,7 +63528,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>719</v>
       </c>
@@ -63146,7 +63550,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>719</v>
       </c>
